--- a/data/annotations/new_annotation_structure_out/iteration_5/iteration_5_agreement.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_5/iteration_5_agreement.xlsx
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -3859,10 +3859,10 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>1</v>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>1</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
         <v>1</v>
